--- a/ContactInfo.xlsx
+++ b/ContactInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samee\OneDrive\Desktop\sendBulkMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAA0956-5F04-4E78-A913-B29678325287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8E6DDE-A3E4-4110-97E5-CA12842BAC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="525" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,21 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Sameer</t>
-  </si>
-  <si>
-    <t>Hammad</t>
-  </si>
-  <si>
-    <t>Usama</t>
   </si>
 </sst>
 </file>
@@ -372,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,38 +383,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3114672433</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3000134956</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3152742964</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3121278993</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/ContactInfo.xlsx
+++ b/ContactInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samee\OneDrive\Desktop\sendBulkMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8E6DDE-A3E4-4110-97E5-CA12842BAC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC74696-7C1D-43F6-BB52-8A804CE32489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="525" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
   </si>
 </sst>
 </file>
@@ -95,6 +101,17 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{75BE4FD3-237A-4A1A-9D01-8FC6D42D3148}" name="Contact"/>
     <tableColumn id="2" xr3:uid="{77672C2F-50B9-43E5-B26E-F969A8593C5F}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3AAA8966-55AA-4E91-B093-C3DFCFF40FD0}" name="Table2" displayName="Table2" ref="C1:D22" totalsRowShown="0">
+  <autoFilter ref="C1:D22" xr:uid="{3AAA8966-55AA-4E91-B093-C3DFCFF40FD0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6189A661-A81B-4DE9-A2A3-2B3DA3ED2375}" name="Message"/>
+    <tableColumn id="2" xr3:uid="{EEBD7D68-1272-4AF2-A317-29952C4E2DA8}" name="CountryCode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -363,30 +380,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>